--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841840_TUR_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841840_TUR_all.xlsx
@@ -488,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM149"/>
+  <dimension ref="A1:AM143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15177,2619 +15177,1905 @@
     </row>
     <row r="128" spans="1:39">
       <c r="A128">
-        <v>2036</v>
+        <v>1702</v>
       </c>
       <c r="B128">
-        <v>13696</v>
+        <v>18059</v>
       </c>
       <c r="C128">
-        <v>1711</v>
+        <v>1932</v>
       </c>
       <c r="D128">
-        <v>1759</v>
+        <v>1918</v>
       </c>
       <c r="E128">
-        <v>1193</v>
+        <v>1404</v>
       </c>
       <c r="F128">
-        <v>536</v>
+        <v>856</v>
       </c>
       <c r="G128">
-        <v>201702</v>
+        <v>201703</v>
       </c>
       <c r="H128">
         <v>2017</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128">
         <v>2036</v>
       </c>
       <c r="K128">
+        <v>2036</v>
+      </c>
+      <c r="L128">
         <v>2027</v>
       </c>
-      <c r="L128">
-        <v>2155</v>
-      </c>
       <c r="M128">
-        <v>2441</v>
+        <v>3286</v>
       </c>
       <c r="N128">
-        <v>2053</v>
+        <v>2115</v>
       </c>
       <c r="O128">
+        <v>13696</v>
+      </c>
+      <c r="P128">
         <v>13721</v>
       </c>
-      <c r="P128">
+      <c r="Q128">
         <v>11513</v>
       </c>
-      <c r="Q128">
-        <v>15721</v>
-      </c>
       <c r="R128">
-        <v>16398</v>
+        <v>19154</v>
       </c>
       <c r="S128">
-        <v>17017</v>
+        <v>15910</v>
       </c>
       <c r="T128">
         <v>1711</v>
       </c>
       <c r="U128">
+        <v>1711</v>
+      </c>
+      <c r="V128">
         <v>1507</v>
       </c>
-      <c r="V128">
-        <v>1832</v>
-      </c>
       <c r="W128">
-        <v>1227</v>
+        <v>2102</v>
       </c>
       <c r="X128">
-        <v>2248</v>
+        <v>2609</v>
       </c>
       <c r="Y128">
         <v>1759</v>
       </c>
       <c r="Z128">
+        <v>1759</v>
+      </c>
+      <c r="AA128">
         <v>1382</v>
       </c>
-      <c r="AA128">
-        <v>1755</v>
-      </c>
       <c r="AB128">
-        <v>2176</v>
+        <v>1868</v>
       </c>
       <c r="AC128">
-        <v>1785</v>
+        <v>1602</v>
       </c>
       <c r="AD128">
         <v>1193</v>
       </c>
       <c r="AE128">
+        <v>1193</v>
+      </c>
+      <c r="AF128">
         <v>969</v>
       </c>
-      <c r="AF128">
-        <v>1243</v>
-      </c>
       <c r="AG128">
-        <v>1666</v>
+        <v>1590</v>
       </c>
       <c r="AH128">
-        <v>2267</v>
+        <v>1441</v>
       </c>
       <c r="AI128">
         <v>536</v>
       </c>
       <c r="AJ128">
+        <v>536</v>
+      </c>
+      <c r="AK128">
         <v>631</v>
       </c>
-      <c r="AK128">
-        <v>1553</v>
-      </c>
       <c r="AL128">
-        <v>1276</v>
+        <v>1551</v>
       </c>
       <c r="AM128">
-        <v>1056</v>
+        <v>854</v>
       </c>
     </row>
     <row r="129" spans="1:39">
       <c r="A129">
-        <v>1702</v>
+        <v>2134</v>
       </c>
       <c r="B129">
-        <v>18059</v>
+        <v>17042</v>
       </c>
       <c r="C129">
-        <v>1932</v>
+        <v>1867</v>
       </c>
       <c r="D129">
-        <v>1918</v>
+        <v>1455</v>
       </c>
       <c r="E129">
-        <v>1404</v>
+        <v>1628</v>
       </c>
       <c r="F129">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="G129">
-        <v>201703</v>
+        <v>201704</v>
       </c>
       <c r="H129">
         <v>2017</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J129">
-        <v>2036</v>
+        <v>1702</v>
       </c>
       <c r="K129">
         <v>2036</v>
       </c>
       <c r="L129">
-        <v>2027</v>
+        <v>2036</v>
       </c>
       <c r="M129">
-        <v>3286</v>
+        <v>2453</v>
       </c>
       <c r="N129">
-        <v>2115</v>
+        <v>2665</v>
       </c>
       <c r="O129">
+        <v>18059</v>
+      </c>
+      <c r="P129">
         <v>13696</v>
       </c>
-      <c r="P129">
+      <c r="Q129">
         <v>13721</v>
       </c>
-      <c r="Q129">
-        <v>11513</v>
-      </c>
       <c r="R129">
-        <v>19154</v>
+        <v>17686</v>
       </c>
       <c r="S129">
-        <v>15910</v>
+        <v>17081</v>
       </c>
       <c r="T129">
-        <v>1711</v>
+        <v>1932</v>
       </c>
       <c r="U129">
         <v>1711</v>
       </c>
       <c r="V129">
-        <v>1507</v>
+        <v>1711</v>
       </c>
       <c r="W129">
-        <v>2102</v>
+        <v>2414</v>
       </c>
       <c r="X129">
-        <v>2609</v>
+        <v>1323</v>
       </c>
       <c r="Y129">
-        <v>1759</v>
+        <v>1918</v>
       </c>
       <c r="Z129">
         <v>1759</v>
       </c>
       <c r="AA129">
-        <v>1382</v>
+        <v>1759</v>
       </c>
       <c r="AB129">
-        <v>1868</v>
+        <v>2115</v>
       </c>
       <c r="AC129">
-        <v>1602</v>
+        <v>1712</v>
       </c>
       <c r="AD129">
-        <v>1193</v>
+        <v>1404</v>
       </c>
       <c r="AE129">
         <v>1193</v>
       </c>
       <c r="AF129">
-        <v>969</v>
+        <v>1193</v>
       </c>
       <c r="AG129">
-        <v>1590</v>
+        <v>1489</v>
       </c>
       <c r="AH129">
-        <v>1441</v>
+        <v>2373</v>
       </c>
       <c r="AI129">
-        <v>536</v>
+        <v>856</v>
       </c>
       <c r="AJ129">
         <v>536</v>
       </c>
       <c r="AK129">
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="AL129">
-        <v>1551</v>
+        <v>1363</v>
       </c>
       <c r="AM129">
-        <v>854</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="130" spans="1:39">
       <c r="A130">
-        <v>2134</v>
+        <v>1942</v>
       </c>
       <c r="B130">
-        <v>17042</v>
+        <v>19666</v>
       </c>
       <c r="C130">
-        <v>1867</v>
+        <v>2345</v>
       </c>
       <c r="D130">
-        <v>1455</v>
+        <v>2240</v>
       </c>
       <c r="E130">
-        <v>1628</v>
+        <v>1827</v>
       </c>
       <c r="F130">
-        <v>867</v>
+        <v>1148</v>
       </c>
       <c r="G130">
-        <v>201704</v>
+        <v>201705</v>
       </c>
       <c r="H130">
         <v>2017</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J130">
+        <v>2134</v>
+      </c>
+      <c r="K130">
+        <v>2134</v>
+      </c>
+      <c r="L130">
         <v>1702</v>
       </c>
-      <c r="K130">
-        <v>2036</v>
-      </c>
-      <c r="L130">
-        <v>2036</v>
-      </c>
       <c r="M130">
-        <v>2453</v>
+        <v>2027</v>
       </c>
       <c r="N130">
-        <v>2665</v>
+        <v>1619</v>
       </c>
       <c r="O130">
+        <v>17039</v>
+      </c>
+      <c r="P130">
+        <v>17042</v>
+      </c>
+      <c r="Q130">
         <v>18059</v>
       </c>
-      <c r="P130">
-        <v>13696</v>
-      </c>
-      <c r="Q130">
-        <v>13721</v>
-      </c>
       <c r="R130">
-        <v>17686</v>
+        <v>11513</v>
       </c>
       <c r="S130">
-        <v>17081</v>
+        <v>13105</v>
       </c>
       <c r="T130">
+        <v>1867</v>
+      </c>
+      <c r="U130">
+        <v>1867</v>
+      </c>
+      <c r="V130">
         <v>1932</v>
       </c>
-      <c r="U130">
-        <v>1711</v>
-      </c>
-      <c r="V130">
-        <v>1711</v>
-      </c>
       <c r="W130">
-        <v>2414</v>
+        <v>1507</v>
       </c>
       <c r="X130">
-        <v>1323</v>
+        <v>480</v>
       </c>
       <c r="Y130">
+        <v>1455</v>
+      </c>
+      <c r="Z130">
+        <v>1455</v>
+      </c>
+      <c r="AA130">
         <v>1918</v>
       </c>
-      <c r="Z130">
-        <v>1759</v>
-      </c>
-      <c r="AA130">
-        <v>1759</v>
-      </c>
       <c r="AB130">
-        <v>2115</v>
+        <v>1382</v>
       </c>
       <c r="AC130">
-        <v>1712</v>
+        <v>1801</v>
       </c>
       <c r="AD130">
+        <v>1628</v>
+      </c>
+      <c r="AE130">
+        <v>1628</v>
+      </c>
+      <c r="AF130">
         <v>1404</v>
       </c>
-      <c r="AE130">
-        <v>1193</v>
-      </c>
-      <c r="AF130">
-        <v>1193</v>
-      </c>
       <c r="AG130">
-        <v>1489</v>
+        <v>969</v>
       </c>
       <c r="AH130">
-        <v>2373</v>
+        <v>1576</v>
       </c>
       <c r="AI130">
+        <v>867</v>
+      </c>
+      <c r="AJ130">
+        <v>867</v>
+      </c>
+      <c r="AK130">
         <v>856</v>
       </c>
-      <c r="AJ130">
-        <v>536</v>
-      </c>
-      <c r="AK130">
-        <v>536</v>
-      </c>
       <c r="AL130">
-        <v>1363</v>
+        <v>631</v>
       </c>
       <c r="AM130">
-        <v>1307</v>
+        <v>824</v>
       </c>
     </row>
     <row r="131" spans="1:39">
       <c r="A131">
-        <v>2134</v>
+        <v>1948</v>
       </c>
       <c r="B131">
-        <v>17039</v>
+        <v>17432</v>
       </c>
       <c r="C131">
-        <v>1867</v>
+        <v>2277</v>
       </c>
       <c r="D131">
-        <v>1455</v>
+        <v>1545</v>
       </c>
       <c r="E131">
-        <v>1628</v>
+        <v>1858</v>
       </c>
       <c r="F131">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G131">
-        <v>201704</v>
+        <v>201706</v>
       </c>
       <c r="H131">
         <v>2017</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J131">
+        <v>1942</v>
+      </c>
+      <c r="K131">
+        <v>1942</v>
+      </c>
+      <c r="L131">
         <v>2134</v>
       </c>
-      <c r="K131">
-        <v>1702</v>
-      </c>
-      <c r="L131">
+      <c r="M131">
         <v>2036</v>
       </c>
-      <c r="M131">
-        <v>2155</v>
-      </c>
       <c r="N131">
-        <v>2554</v>
+        <v>2441</v>
       </c>
       <c r="O131">
-        <v>17042</v>
+        <v>19688</v>
       </c>
       <c r="P131">
-        <v>18059</v>
+        <v>19666</v>
       </c>
       <c r="Q131">
+        <v>17039</v>
+      </c>
+      <c r="R131">
         <v>13696</v>
       </c>
-      <c r="R131">
-        <v>15721</v>
-      </c>
       <c r="S131">
-        <v>19925</v>
+        <v>16398</v>
       </c>
       <c r="T131">
+        <v>2345</v>
+      </c>
+      <c r="U131">
+        <v>2345</v>
+      </c>
+      <c r="V131">
         <v>1867</v>
       </c>
-      <c r="U131">
-        <v>1932</v>
-      </c>
-      <c r="V131">
+      <c r="W131">
         <v>1711</v>
       </c>
-      <c r="W131">
-        <v>1832</v>
-      </c>
       <c r="X131">
-        <v>1797</v>
+        <v>1227</v>
       </c>
       <c r="Y131">
+        <v>2240</v>
+      </c>
+      <c r="Z131">
+        <v>2240</v>
+      </c>
+      <c r="AA131">
         <v>1455</v>
       </c>
-      <c r="Z131">
-        <v>1918</v>
-      </c>
-      <c r="AA131">
+      <c r="AB131">
         <v>1759</v>
       </c>
-      <c r="AB131">
-        <v>1755</v>
-      </c>
       <c r="AC131">
-        <v>1852</v>
+        <v>2176</v>
       </c>
       <c r="AD131">
+        <v>1827</v>
+      </c>
+      <c r="AE131">
+        <v>1827</v>
+      </c>
+      <c r="AF131">
         <v>1628</v>
       </c>
-      <c r="AE131">
-        <v>1404</v>
-      </c>
-      <c r="AF131">
+      <c r="AG131">
         <v>1193</v>
       </c>
-      <c r="AG131">
-        <v>1243</v>
-      </c>
       <c r="AH131">
-        <v>2626</v>
+        <v>1666</v>
       </c>
       <c r="AI131">
+        <v>1153</v>
+      </c>
+      <c r="AJ131">
+        <v>1148</v>
+      </c>
+      <c r="AK131">
         <v>867</v>
       </c>
-      <c r="AJ131">
-        <v>856</v>
-      </c>
-      <c r="AK131">
+      <c r="AL131">
         <v>536</v>
       </c>
-      <c r="AL131">
-        <v>1553</v>
-      </c>
       <c r="AM131">
-        <v>1293</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="132" spans="1:39">
       <c r="A132">
-        <v>1942</v>
+        <v>2030</v>
       </c>
       <c r="B132">
-        <v>19666</v>
+        <v>16979</v>
       </c>
       <c r="C132">
-        <v>2345</v>
+        <v>778</v>
       </c>
       <c r="D132">
-        <v>2240</v>
+        <v>1945</v>
       </c>
       <c r="E132">
-        <v>1827</v>
+        <v>1761</v>
       </c>
       <c r="F132">
-        <v>1148</v>
+        <v>683</v>
       </c>
       <c r="G132">
-        <v>201705</v>
+        <v>201707</v>
       </c>
       <c r="H132">
         <v>2017</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J132">
+        <v>1948</v>
+      </c>
+      <c r="K132">
+        <v>1948</v>
+      </c>
+      <c r="L132">
+        <v>1942</v>
+      </c>
+      <c r="M132">
         <v>2134</v>
       </c>
-      <c r="K132">
-        <v>2134</v>
-      </c>
-      <c r="L132">
-        <v>1702</v>
-      </c>
-      <c r="M132">
-        <v>2027</v>
-      </c>
       <c r="N132">
-        <v>1619</v>
+        <v>2453</v>
       </c>
       <c r="O132">
-        <v>17039</v>
+        <v>17430</v>
       </c>
       <c r="P132">
+        <v>17432</v>
+      </c>
+      <c r="Q132">
+        <v>19688</v>
+      </c>
+      <c r="R132">
         <v>17042</v>
       </c>
-      <c r="Q132">
-        <v>18059</v>
-      </c>
-      <c r="R132">
-        <v>11513</v>
-      </c>
       <c r="S132">
-        <v>13105</v>
+        <v>17686</v>
       </c>
       <c r="T132">
+        <v>2277</v>
+      </c>
+      <c r="U132">
+        <v>2277</v>
+      </c>
+      <c r="V132">
+        <v>2345</v>
+      </c>
+      <c r="W132">
         <v>1867</v>
       </c>
-      <c r="U132">
-        <v>1867</v>
-      </c>
-      <c r="V132">
-        <v>1932</v>
-      </c>
-      <c r="W132">
-        <v>1507</v>
-      </c>
       <c r="X132">
-        <v>480</v>
+        <v>2414</v>
       </c>
       <c r="Y132">
+        <v>1545</v>
+      </c>
+      <c r="Z132">
+        <v>1545</v>
+      </c>
+      <c r="AA132">
+        <v>2240</v>
+      </c>
+      <c r="AB132">
         <v>1455</v>
       </c>
-      <c r="Z132">
-        <v>1455</v>
-      </c>
-      <c r="AA132">
-        <v>1918</v>
-      </c>
-      <c r="AB132">
-        <v>1382</v>
-      </c>
       <c r="AC132">
-        <v>1801</v>
+        <v>2115</v>
       </c>
       <c r="AD132">
+        <v>1858</v>
+      </c>
+      <c r="AE132">
+        <v>1858</v>
+      </c>
+      <c r="AF132">
+        <v>1827</v>
+      </c>
+      <c r="AG132">
         <v>1628</v>
       </c>
-      <c r="AE132">
-        <v>1628</v>
-      </c>
-      <c r="AF132">
-        <v>1404</v>
-      </c>
-      <c r="AG132">
-        <v>969</v>
-      </c>
       <c r="AH132">
-        <v>1576</v>
+        <v>1489</v>
       </c>
       <c r="AI132">
+        <v>858</v>
+      </c>
+      <c r="AJ132">
+        <v>858</v>
+      </c>
+      <c r="AK132">
+        <v>1153</v>
+      </c>
+      <c r="AL132">
         <v>867</v>
       </c>
-      <c r="AJ132">
-        <v>867</v>
-      </c>
-      <c r="AK132">
-        <v>856</v>
-      </c>
-      <c r="AL132">
-        <v>631</v>
-      </c>
       <c r="AM132">
-        <v>824</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="133" spans="1:39">
       <c r="A133">
-        <v>1942</v>
+        <v>3826</v>
       </c>
       <c r="B133">
-        <v>19688</v>
+        <v>21393</v>
       </c>
       <c r="C133">
-        <v>2345</v>
+        <v>1827</v>
       </c>
       <c r="D133">
-        <v>2240</v>
+        <v>2187</v>
       </c>
       <c r="E133">
-        <v>1827</v>
+        <v>1527</v>
       </c>
       <c r="F133">
-        <v>1153</v>
+        <v>1074</v>
       </c>
       <c r="G133">
-        <v>201705</v>
+        <v>201708</v>
       </c>
       <c r="H133">
         <v>2017</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J133">
+        <v>2030</v>
+      </c>
+      <c r="K133">
+        <v>2030</v>
+      </c>
+      <c r="L133">
+        <v>1948</v>
+      </c>
+      <c r="M133">
         <v>1942</v>
       </c>
-      <c r="K133">
-        <v>2134</v>
-      </c>
-      <c r="L133">
-        <v>2134</v>
-      </c>
-      <c r="M133">
-        <v>2036</v>
-      </c>
       <c r="N133">
-        <v>3523</v>
+        <v>2027</v>
       </c>
       <c r="O133">
+        <v>17029</v>
+      </c>
+      <c r="P133">
+        <v>16979</v>
+      </c>
+      <c r="Q133">
+        <v>17430</v>
+      </c>
+      <c r="R133">
         <v>19666</v>
       </c>
-      <c r="P133">
-        <v>17039</v>
-      </c>
-      <c r="Q133">
-        <v>17042</v>
-      </c>
-      <c r="R133">
-        <v>13721</v>
-      </c>
       <c r="S133">
-        <v>20842</v>
+        <v>11513</v>
       </c>
       <c r="T133">
+        <v>778</v>
+      </c>
+      <c r="U133">
+        <v>778</v>
+      </c>
+      <c r="V133">
+        <v>2277</v>
+      </c>
+      <c r="W133">
         <v>2345</v>
       </c>
-      <c r="U133">
-        <v>1867</v>
-      </c>
-      <c r="V133">
-        <v>1867</v>
-      </c>
-      <c r="W133">
-        <v>1711</v>
-      </c>
       <c r="X133">
-        <v>2470</v>
+        <v>1507</v>
       </c>
       <c r="Y133">
+        <v>1945</v>
+      </c>
+      <c r="Z133">
+        <v>1945</v>
+      </c>
+      <c r="AA133">
+        <v>1545</v>
+      </c>
+      <c r="AB133">
         <v>2240</v>
       </c>
-      <c r="Z133">
-        <v>1455</v>
-      </c>
-      <c r="AA133">
-        <v>1455</v>
-      </c>
-      <c r="AB133">
-        <v>1759</v>
-      </c>
       <c r="AC133">
-        <v>2233</v>
+        <v>1382</v>
       </c>
       <c r="AD133">
+        <v>1780</v>
+      </c>
+      <c r="AE133">
+        <v>1761</v>
+      </c>
+      <c r="AF133">
+        <v>1858</v>
+      </c>
+      <c r="AG133">
         <v>1827</v>
       </c>
-      <c r="AE133">
-        <v>1628</v>
-      </c>
-      <c r="AF133">
-        <v>1628</v>
-      </c>
-      <c r="AG133">
-        <v>1193</v>
-      </c>
       <c r="AH133">
-        <v>2482</v>
+        <v>969</v>
       </c>
       <c r="AI133">
+        <v>683</v>
+      </c>
+      <c r="AJ133">
+        <v>683</v>
+      </c>
+      <c r="AK133">
+        <v>858</v>
+      </c>
+      <c r="AL133">
         <v>1148</v>
       </c>
-      <c r="AJ133">
-        <v>867</v>
-      </c>
-      <c r="AK133">
-        <v>867</v>
-      </c>
-      <c r="AL133">
-        <v>536</v>
-      </c>
       <c r="AM133">
-        <v>1176</v>
+        <v>631</v>
       </c>
     </row>
     <row r="134" spans="1:39">
       <c r="A134">
-        <v>1948</v>
+        <v>2631</v>
       </c>
       <c r="B134">
-        <v>17432</v>
+        <v>15152</v>
       </c>
       <c r="C134">
-        <v>2277</v>
+        <v>1944</v>
       </c>
       <c r="D134">
-        <v>1545</v>
+        <v>1764</v>
       </c>
       <c r="E134">
-        <v>1858</v>
+        <v>1048</v>
       </c>
       <c r="F134">
-        <v>858</v>
+        <v>1006</v>
       </c>
       <c r="G134">
-        <v>201706</v>
+        <v>201709</v>
       </c>
       <c r="H134">
         <v>2017</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J134">
-        <v>1942</v>
+        <v>3826</v>
       </c>
       <c r="K134">
-        <v>1942</v>
+        <v>3826</v>
       </c>
       <c r="L134">
-        <v>2134</v>
+        <v>2030</v>
       </c>
       <c r="M134">
+        <v>1948</v>
+      </c>
+      <c r="N134">
         <v>2036</v>
       </c>
-      <c r="N134">
-        <v>2441</v>
-      </c>
       <c r="O134">
-        <v>19688</v>
+        <v>21390</v>
       </c>
       <c r="P134">
-        <v>19666</v>
+        <v>21393</v>
       </c>
       <c r="Q134">
-        <v>17039</v>
+        <v>17029</v>
       </c>
       <c r="R134">
+        <v>17432</v>
+      </c>
+      <c r="S134">
         <v>13696</v>
       </c>
-      <c r="S134">
-        <v>16398</v>
-      </c>
       <c r="T134">
-        <v>2345</v>
+        <v>1827</v>
       </c>
       <c r="U134">
-        <v>2345</v>
+        <v>1827</v>
       </c>
       <c r="V134">
-        <v>1867</v>
+        <v>778</v>
       </c>
       <c r="W134">
+        <v>2277</v>
+      </c>
+      <c r="X134">
         <v>1711</v>
       </c>
-      <c r="X134">
-        <v>1227</v>
-      </c>
       <c r="Y134">
-        <v>2240</v>
+        <v>2187</v>
       </c>
       <c r="Z134">
-        <v>2240</v>
+        <v>2187</v>
       </c>
       <c r="AA134">
-        <v>1455</v>
+        <v>1945</v>
       </c>
       <c r="AB134">
+        <v>1545</v>
+      </c>
+      <c r="AC134">
         <v>1759</v>
       </c>
-      <c r="AC134">
-        <v>2176</v>
-      </c>
       <c r="AD134">
-        <v>1827</v>
+        <v>1527</v>
       </c>
       <c r="AE134">
-        <v>1827</v>
+        <v>1527</v>
       </c>
       <c r="AF134">
-        <v>1628</v>
+        <v>1780</v>
       </c>
       <c r="AG134">
+        <v>1858</v>
+      </c>
+      <c r="AH134">
         <v>1193</v>
       </c>
-      <c r="AH134">
-        <v>1666</v>
-      </c>
       <c r="AI134">
-        <v>1153</v>
+        <v>1074</v>
       </c>
       <c r="AJ134">
-        <v>1148</v>
+        <v>1074</v>
       </c>
       <c r="AK134">
-        <v>867</v>
+        <v>683</v>
       </c>
       <c r="AL134">
+        <v>858</v>
+      </c>
+      <c r="AM134">
         <v>536</v>
-      </c>
-      <c r="AM134">
-        <v>1276</v>
       </c>
     </row>
     <row r="135" spans="1:39">
       <c r="A135">
-        <v>1948</v>
+        <v>3328</v>
       </c>
       <c r="B135">
-        <v>17430</v>
+        <v>16549</v>
       </c>
       <c r="C135">
-        <v>2277</v>
+        <v>1751</v>
       </c>
       <c r="D135">
-        <v>1545</v>
+        <v>2698</v>
       </c>
       <c r="E135">
-        <v>1858</v>
+        <v>1129</v>
       </c>
       <c r="F135">
-        <v>858</v>
+        <v>968</v>
       </c>
       <c r="G135">
-        <v>201706</v>
+        <v>201710</v>
       </c>
       <c r="H135">
         <v>2017</v>
       </c>
       <c r="I135">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J135">
+        <v>2631</v>
+      </c>
+      <c r="K135">
+        <v>3826</v>
+      </c>
+      <c r="L135">
+        <v>3826</v>
+      </c>
+      <c r="M135">
         <v>1948</v>
       </c>
-      <c r="K135">
-        <v>1942</v>
-      </c>
-      <c r="L135">
-        <v>1942</v>
-      </c>
-      <c r="M135">
+      <c r="N135">
         <v>1702</v>
       </c>
-      <c r="N135">
-        <v>3286</v>
-      </c>
       <c r="O135">
-        <v>17432</v>
+        <v>15152</v>
       </c>
       <c r="P135">
-        <v>19688</v>
+        <v>21390</v>
       </c>
       <c r="Q135">
-        <v>19666</v>
+        <v>21393</v>
       </c>
       <c r="R135">
+        <v>17430</v>
+      </c>
+      <c r="S135">
         <v>18059</v>
       </c>
-      <c r="S135">
-        <v>19154</v>
-      </c>
       <c r="T135">
+        <v>1944</v>
+      </c>
+      <c r="U135">
+        <v>1827</v>
+      </c>
+      <c r="V135">
+        <v>1827</v>
+      </c>
+      <c r="W135">
         <v>2277</v>
       </c>
-      <c r="U135">
-        <v>2345</v>
-      </c>
-      <c r="V135">
-        <v>2345</v>
-      </c>
-      <c r="W135">
+      <c r="X135">
         <v>1932</v>
       </c>
-      <c r="X135">
-        <v>2102</v>
-      </c>
       <c r="Y135">
+        <v>1764</v>
+      </c>
+      <c r="Z135">
+        <v>2187</v>
+      </c>
+      <c r="AA135">
+        <v>2187</v>
+      </c>
+      <c r="AB135">
         <v>1545</v>
       </c>
-      <c r="Z135">
-        <v>2240</v>
-      </c>
-      <c r="AA135">
-        <v>2240</v>
-      </c>
-      <c r="AB135">
+      <c r="AC135">
         <v>1918</v>
       </c>
-      <c r="AC135">
-        <v>1868</v>
-      </c>
       <c r="AD135">
+        <v>1048</v>
+      </c>
+      <c r="AE135">
+        <v>1527</v>
+      </c>
+      <c r="AF135">
+        <v>1527</v>
+      </c>
+      <c r="AG135">
         <v>1858</v>
       </c>
-      <c r="AE135">
-        <v>1827</v>
-      </c>
-      <c r="AF135">
-        <v>1827</v>
-      </c>
-      <c r="AG135">
+      <c r="AH135">
         <v>1404</v>
       </c>
-      <c r="AH135">
-        <v>1590</v>
-      </c>
       <c r="AI135">
+        <v>1006</v>
+      </c>
+      <c r="AJ135">
+        <v>1074</v>
+      </c>
+      <c r="AK135">
+        <v>1074</v>
+      </c>
+      <c r="AL135">
         <v>858</v>
       </c>
-      <c r="AJ135">
-        <v>1153</v>
-      </c>
-      <c r="AK135">
-        <v>1148</v>
-      </c>
-      <c r="AL135">
+      <c r="AM135">
         <v>856</v>
-      </c>
-      <c r="AM135">
-        <v>1551</v>
       </c>
     </row>
     <row r="136" spans="1:39">
       <c r="A136">
-        <v>2030</v>
+        <v>2489</v>
       </c>
       <c r="B136">
-        <v>16979</v>
+        <v>18375</v>
       </c>
       <c r="C136">
-        <v>778</v>
+        <v>4169</v>
       </c>
       <c r="D136">
-        <v>1945</v>
+        <v>2352</v>
       </c>
       <c r="E136">
-        <v>1761</v>
+        <v>1199</v>
       </c>
       <c r="F136">
-        <v>683</v>
+        <v>1008</v>
       </c>
       <c r="G136">
-        <v>201707</v>
+        <v>201711</v>
       </c>
       <c r="H136">
         <v>2017</v>
       </c>
       <c r="I136">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J136">
-        <v>1948</v>
+        <v>3328</v>
       </c>
       <c r="K136">
-        <v>1948</v>
+        <v>2631</v>
       </c>
       <c r="L136">
-        <v>1942</v>
+        <v>3826</v>
       </c>
       <c r="M136">
+        <v>2030</v>
+      </c>
+      <c r="N136">
         <v>2134</v>
       </c>
-      <c r="N136">
-        <v>2453</v>
-      </c>
       <c r="O136">
-        <v>17430</v>
+        <v>16549</v>
       </c>
       <c r="P136">
-        <v>17432</v>
+        <v>15152</v>
       </c>
       <c r="Q136">
-        <v>19688</v>
+        <v>21390</v>
       </c>
       <c r="R136">
+        <v>16979</v>
+      </c>
+      <c r="S136">
         <v>17042</v>
       </c>
-      <c r="S136">
-        <v>17686</v>
-      </c>
       <c r="T136">
-        <v>2277</v>
+        <v>1751</v>
       </c>
       <c r="U136">
-        <v>2277</v>
+        <v>1944</v>
       </c>
       <c r="V136">
-        <v>2345</v>
+        <v>1827</v>
       </c>
       <c r="W136">
+        <v>778</v>
+      </c>
+      <c r="X136">
         <v>1867</v>
       </c>
-      <c r="X136">
-        <v>2414</v>
-      </c>
       <c r="Y136">
-        <v>1545</v>
+        <v>2698</v>
       </c>
       <c r="Z136">
-        <v>1545</v>
+        <v>1764</v>
       </c>
       <c r="AA136">
-        <v>2240</v>
+        <v>2187</v>
       </c>
       <c r="AB136">
+        <v>1945</v>
+      </c>
+      <c r="AC136">
         <v>1455</v>
       </c>
-      <c r="AC136">
-        <v>2115</v>
-      </c>
       <c r="AD136">
-        <v>1858</v>
+        <v>1129</v>
       </c>
       <c r="AE136">
-        <v>1858</v>
+        <v>1048</v>
       </c>
       <c r="AF136">
-        <v>1827</v>
+        <v>1527</v>
       </c>
       <c r="AG136">
+        <v>1761</v>
+      </c>
+      <c r="AH136">
         <v>1628</v>
       </c>
-      <c r="AH136">
-        <v>1489</v>
-      </c>
       <c r="AI136">
-        <v>858</v>
+        <v>968</v>
       </c>
       <c r="AJ136">
-        <v>858</v>
+        <v>1006</v>
       </c>
       <c r="AK136">
-        <v>1153</v>
+        <v>1074</v>
       </c>
       <c r="AL136">
+        <v>683</v>
+      </c>
+      <c r="AM136">
         <v>867</v>
-      </c>
-      <c r="AM136">
-        <v>1363</v>
       </c>
     </row>
     <row r="137" spans="1:39">
       <c r="A137">
-        <v>2030</v>
+        <v>1831</v>
       </c>
       <c r="B137">
-        <v>17029</v>
+        <v>17030</v>
       </c>
       <c r="C137">
-        <v>778</v>
+        <v>4183</v>
       </c>
       <c r="D137">
-        <v>1945</v>
+        <v>1928</v>
       </c>
       <c r="E137">
-        <v>1780</v>
+        <v>1127</v>
       </c>
       <c r="F137">
-        <v>683</v>
+        <v>1218</v>
       </c>
       <c r="G137">
-        <v>201707</v>
+        <v>201712</v>
       </c>
       <c r="H137">
         <v>2017</v>
       </c>
       <c r="I137">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J137">
+        <v>2489</v>
+      </c>
+      <c r="K137">
+        <v>3328</v>
+      </c>
+      <c r="L137">
+        <v>2631</v>
+      </c>
+      <c r="M137">
         <v>2030</v>
       </c>
-      <c r="K137">
-        <v>1948</v>
-      </c>
-      <c r="L137">
-        <v>1948</v>
-      </c>
-      <c r="M137">
+      <c r="N137">
         <v>2134</v>
       </c>
-      <c r="N137">
-        <v>2155</v>
-      </c>
       <c r="O137">
-        <v>16979</v>
+        <v>18375</v>
       </c>
       <c r="P137">
-        <v>17430</v>
+        <v>16549</v>
       </c>
       <c r="Q137">
-        <v>17432</v>
+        <v>15152</v>
       </c>
       <c r="R137">
+        <v>17029</v>
+      </c>
+      <c r="S137">
         <v>17039</v>
       </c>
-      <c r="S137">
-        <v>15721</v>
-      </c>
       <c r="T137">
+        <v>4169</v>
+      </c>
+      <c r="U137">
+        <v>1751</v>
+      </c>
+      <c r="V137">
+        <v>1944</v>
+      </c>
+      <c r="W137">
         <v>778</v>
       </c>
-      <c r="U137">
-        <v>2277</v>
-      </c>
-      <c r="V137">
-        <v>2277</v>
-      </c>
-      <c r="W137">
+      <c r="X137">
         <v>1867</v>
       </c>
-      <c r="X137">
-        <v>1832</v>
-      </c>
       <c r="Y137">
+        <v>2352</v>
+      </c>
+      <c r="Z137">
+        <v>2698</v>
+      </c>
+      <c r="AA137">
+        <v>1764</v>
+      </c>
+      <c r="AB137">
         <v>1945</v>
       </c>
-      <c r="Z137">
-        <v>1545</v>
-      </c>
-      <c r="AA137">
-        <v>1545</v>
-      </c>
-      <c r="AB137">
+      <c r="AC137">
         <v>1455</v>
       </c>
-      <c r="AC137">
-        <v>1755</v>
-      </c>
       <c r="AD137">
-        <v>1761</v>
+        <v>1199</v>
       </c>
       <c r="AE137">
-        <v>1858</v>
+        <v>1129</v>
       </c>
       <c r="AF137">
-        <v>1858</v>
+        <v>1048</v>
       </c>
       <c r="AG137">
+        <v>1780</v>
+      </c>
+      <c r="AH137">
         <v>1628</v>
       </c>
-      <c r="AH137">
-        <v>1243</v>
-      </c>
       <c r="AI137">
+        <v>1008</v>
+      </c>
+      <c r="AJ137">
+        <v>968</v>
+      </c>
+      <c r="AK137">
+        <v>1006</v>
+      </c>
+      <c r="AL137">
         <v>683</v>
       </c>
-      <c r="AJ137">
-        <v>858</v>
-      </c>
-      <c r="AK137">
-        <v>858</v>
-      </c>
-      <c r="AL137">
+      <c r="AM137">
         <v>867</v>
-      </c>
-      <c r="AM137">
-        <v>1553</v>
       </c>
     </row>
     <row r="138" spans="1:39">
       <c r="A138">
+        <v>2713</v>
+      </c>
+      <c r="B138">
+        <v>13720</v>
+      </c>
+      <c r="C138">
+        <v>2298</v>
+      </c>
+      <c r="D138">
+        <v>1322</v>
+      </c>
+      <c r="E138">
+        <v>809</v>
+      </c>
+      <c r="F138">
+        <v>759</v>
+      </c>
+      <c r="G138">
+        <v>201801</v>
+      </c>
+      <c r="H138">
+        <v>2018</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1831</v>
+      </c>
+      <c r="K138">
+        <v>2489</v>
+      </c>
+      <c r="L138">
+        <v>3328</v>
+      </c>
+      <c r="M138">
         <v>3826</v>
       </c>
-      <c r="B138">
+      <c r="N138">
+        <v>1942</v>
+      </c>
+      <c r="O138">
+        <v>17030</v>
+      </c>
+      <c r="P138">
+        <v>18375</v>
+      </c>
+      <c r="Q138">
+        <v>16549</v>
+      </c>
+      <c r="R138">
         <v>21393</v>
       </c>
-      <c r="C138">
+      <c r="S138">
+        <v>19666</v>
+      </c>
+      <c r="T138">
+        <v>4183</v>
+      </c>
+      <c r="U138">
+        <v>4169</v>
+      </c>
+      <c r="V138">
+        <v>1751</v>
+      </c>
+      <c r="W138">
         <v>1827</v>
       </c>
-      <c r="D138">
+      <c r="X138">
+        <v>2345</v>
+      </c>
+      <c r="Y138">
+        <v>1928</v>
+      </c>
+      <c r="Z138">
+        <v>2352</v>
+      </c>
+      <c r="AA138">
+        <v>2698</v>
+      </c>
+      <c r="AB138">
         <v>2187</v>
       </c>
-      <c r="E138">
+      <c r="AC138">
+        <v>2240</v>
+      </c>
+      <c r="AD138">
+        <v>1127</v>
+      </c>
+      <c r="AE138">
+        <v>1199</v>
+      </c>
+      <c r="AF138">
+        <v>1129</v>
+      </c>
+      <c r="AG138">
         <v>1527</v>
       </c>
-      <c r="F138">
+      <c r="AH138">
+        <v>1827</v>
+      </c>
+      <c r="AI138">
+        <v>1218</v>
+      </c>
+      <c r="AJ138">
+        <v>1008</v>
+      </c>
+      <c r="AK138">
+        <v>968</v>
+      </c>
+      <c r="AL138">
         <v>1074</v>
       </c>
-      <c r="G138">
-        <v>201708</v>
-      </c>
-      <c r="H138">
-        <v>2017</v>
-      </c>
-      <c r="I138">
-        <v>8</v>
-      </c>
-      <c r="J138">
-        <v>2030</v>
-      </c>
-      <c r="K138">
-        <v>2030</v>
-      </c>
-      <c r="L138">
-        <v>1948</v>
-      </c>
-      <c r="M138">
-        <v>1942</v>
-      </c>
-      <c r="N138">
-        <v>2027</v>
-      </c>
-      <c r="O138">
-        <v>17029</v>
-      </c>
-      <c r="P138">
-        <v>16979</v>
-      </c>
-      <c r="Q138">
-        <v>17430</v>
-      </c>
-      <c r="R138">
-        <v>19666</v>
-      </c>
-      <c r="S138">
-        <v>11513</v>
-      </c>
-      <c r="T138">
-        <v>778</v>
-      </c>
-      <c r="U138">
-        <v>778</v>
-      </c>
-      <c r="V138">
-        <v>2277</v>
-      </c>
-      <c r="W138">
-        <v>2345</v>
-      </c>
-      <c r="X138">
-        <v>1507</v>
-      </c>
-      <c r="Y138">
-        <v>1945</v>
-      </c>
-      <c r="Z138">
-        <v>1945</v>
-      </c>
-      <c r="AA138">
-        <v>1545</v>
-      </c>
-      <c r="AB138">
-        <v>2240</v>
-      </c>
-      <c r="AC138">
-        <v>1382</v>
-      </c>
-      <c r="AD138">
-        <v>1780</v>
-      </c>
-      <c r="AE138">
-        <v>1761</v>
-      </c>
-      <c r="AF138">
-        <v>1858</v>
-      </c>
-      <c r="AG138">
-        <v>1827</v>
-      </c>
-      <c r="AH138">
-        <v>969</v>
-      </c>
-      <c r="AI138">
-        <v>683</v>
-      </c>
-      <c r="AJ138">
-        <v>683</v>
-      </c>
-      <c r="AK138">
-        <v>858</v>
-      </c>
-      <c r="AL138">
+      <c r="AM138">
         <v>1148</v>
-      </c>
-      <c r="AM138">
-        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:39">
       <c r="A139">
+        <v>1967</v>
+      </c>
+      <c r="B139">
+        <v>19445</v>
+      </c>
+      <c r="C139">
+        <v>2210</v>
+      </c>
+      <c r="D139">
+        <v>5496</v>
+      </c>
+      <c r="E139">
+        <v>785</v>
+      </c>
+      <c r="F139">
+        <v>850</v>
+      </c>
+      <c r="G139">
+        <v>201802</v>
+      </c>
+      <c r="H139">
+        <v>2018</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>2713</v>
+      </c>
+      <c r="K139">
+        <v>1831</v>
+      </c>
+      <c r="L139">
+        <v>2489</v>
+      </c>
+      <c r="M139">
         <v>3826</v>
       </c>
-      <c r="B139">
+      <c r="N139">
+        <v>1942</v>
+      </c>
+      <c r="O139">
+        <v>13720</v>
+      </c>
+      <c r="P139">
+        <v>17030</v>
+      </c>
+      <c r="Q139">
+        <v>18375</v>
+      </c>
+      <c r="R139">
         <v>21390</v>
       </c>
-      <c r="C139">
+      <c r="S139">
+        <v>19688</v>
+      </c>
+      <c r="T139">
+        <v>2298</v>
+      </c>
+      <c r="U139">
+        <v>4183</v>
+      </c>
+      <c r="V139">
+        <v>4169</v>
+      </c>
+      <c r="W139">
         <v>1827</v>
       </c>
-      <c r="D139">
+      <c r="X139">
+        <v>2345</v>
+      </c>
+      <c r="Y139">
+        <v>1322</v>
+      </c>
+      <c r="Z139">
+        <v>1928</v>
+      </c>
+      <c r="AA139">
+        <v>2352</v>
+      </c>
+      <c r="AB139">
         <v>2187</v>
       </c>
-      <c r="E139">
+      <c r="AC139">
+        <v>2240</v>
+      </c>
+      <c r="AD139">
+        <v>809</v>
+      </c>
+      <c r="AE139">
+        <v>1127</v>
+      </c>
+      <c r="AF139">
+        <v>1199</v>
+      </c>
+      <c r="AG139">
         <v>1527</v>
       </c>
-      <c r="F139">
+      <c r="AH139">
+        <v>1827</v>
+      </c>
+      <c r="AI139">
+        <v>759</v>
+      </c>
+      <c r="AJ139">
+        <v>1218</v>
+      </c>
+      <c r="AK139">
+        <v>1008</v>
+      </c>
+      <c r="AL139">
         <v>1074</v>
       </c>
-      <c r="G139">
-        <v>201708</v>
-      </c>
-      <c r="H139">
-        <v>2017</v>
-      </c>
-      <c r="I139">
-        <v>8</v>
-      </c>
-      <c r="J139">
-        <v>3826</v>
-      </c>
-      <c r="K139">
-        <v>2030</v>
-      </c>
-      <c r="L139">
-        <v>2030</v>
-      </c>
-      <c r="M139">
-        <v>1942</v>
-      </c>
-      <c r="N139">
-        <v>2036</v>
-      </c>
-      <c r="O139">
-        <v>21393</v>
-      </c>
-      <c r="P139">
-        <v>17029</v>
-      </c>
-      <c r="Q139">
-        <v>16979</v>
-      </c>
-      <c r="R139">
-        <v>19688</v>
-      </c>
-      <c r="S139">
-        <v>13721</v>
-      </c>
-      <c r="T139">
-        <v>1827</v>
-      </c>
-      <c r="U139">
-        <v>778</v>
-      </c>
-      <c r="V139">
-        <v>778</v>
-      </c>
-      <c r="W139">
-        <v>2345</v>
-      </c>
-      <c r="X139">
-        <v>1711</v>
-      </c>
-      <c r="Y139">
-        <v>2187</v>
-      </c>
-      <c r="Z139">
-        <v>1945</v>
-      </c>
-      <c r="AA139">
-        <v>1945</v>
-      </c>
-      <c r="AB139">
-        <v>2240</v>
-      </c>
-      <c r="AC139">
-        <v>1759</v>
-      </c>
-      <c r="AD139">
-        <v>1527</v>
-      </c>
-      <c r="AE139">
-        <v>1780</v>
-      </c>
-      <c r="AF139">
-        <v>1761</v>
-      </c>
-      <c r="AG139">
-        <v>1827</v>
-      </c>
-      <c r="AH139">
-        <v>1193</v>
-      </c>
-      <c r="AI139">
-        <v>1074</v>
-      </c>
-      <c r="AJ139">
-        <v>683</v>
-      </c>
-      <c r="AK139">
-        <v>683</v>
-      </c>
-      <c r="AL139">
+      <c r="AM139">
         <v>1153</v>
-      </c>
-      <c r="AM139">
-        <v>536</v>
       </c>
     </row>
     <row r="140" spans="1:39">
       <c r="A140">
+        <v>1726</v>
+      </c>
+      <c r="B140">
+        <v>18300</v>
+      </c>
+      <c r="C140">
+        <v>3128</v>
+      </c>
+      <c r="D140">
+        <v>2494</v>
+      </c>
+      <c r="E140">
+        <v>1378</v>
+      </c>
+      <c r="F140">
+        <v>904</v>
+      </c>
+      <c r="G140">
+        <v>201803</v>
+      </c>
+      <c r="H140">
+        <v>2018</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>1967</v>
+      </c>
+      <c r="K140">
+        <v>2713</v>
+      </c>
+      <c r="L140">
+        <v>1831</v>
+      </c>
+      <c r="M140">
         <v>2631</v>
       </c>
-      <c r="B140">
+      <c r="N140">
+        <v>1948</v>
+      </c>
+      <c r="O140">
+        <v>19445</v>
+      </c>
+      <c r="P140">
+        <v>13720</v>
+      </c>
+      <c r="Q140">
+        <v>17030</v>
+      </c>
+      <c r="R140">
         <v>15152</v>
       </c>
-      <c r="C140">
+      <c r="S140">
+        <v>17432</v>
+      </c>
+      <c r="T140">
+        <v>2210</v>
+      </c>
+      <c r="U140">
+        <v>2298</v>
+      </c>
+      <c r="V140">
+        <v>4183</v>
+      </c>
+      <c r="W140">
         <v>1944</v>
       </c>
-      <c r="D140">
+      <c r="X140">
+        <v>2277</v>
+      </c>
+      <c r="Y140">
+        <v>5496</v>
+      </c>
+      <c r="Z140">
+        <v>1322</v>
+      </c>
+      <c r="AA140">
+        <v>1928</v>
+      </c>
+      <c r="AB140">
         <v>1764</v>
       </c>
-      <c r="E140">
+      <c r="AC140">
+        <v>1545</v>
+      </c>
+      <c r="AD140">
+        <v>785</v>
+      </c>
+      <c r="AE140">
+        <v>809</v>
+      </c>
+      <c r="AF140">
+        <v>1127</v>
+      </c>
+      <c r="AG140">
         <v>1048</v>
       </c>
-      <c r="F140">
+      <c r="AH140">
+        <v>1858</v>
+      </c>
+      <c r="AI140">
+        <v>850</v>
+      </c>
+      <c r="AJ140">
+        <v>759</v>
+      </c>
+      <c r="AK140">
+        <v>1218</v>
+      </c>
+      <c r="AL140">
         <v>1006</v>
       </c>
-      <c r="G140">
-        <v>201709</v>
-      </c>
-      <c r="H140">
-        <v>2017</v>
-      </c>
-      <c r="I140">
-        <v>9</v>
-      </c>
-      <c r="J140">
-        <v>3826</v>
-      </c>
-      <c r="K140">
-        <v>3826</v>
-      </c>
-      <c r="L140">
-        <v>2030</v>
-      </c>
-      <c r="M140">
-        <v>1948</v>
-      </c>
-      <c r="N140">
-        <v>2036</v>
-      </c>
-      <c r="O140">
-        <v>21390</v>
-      </c>
-      <c r="P140">
-        <v>21393</v>
-      </c>
-      <c r="Q140">
-        <v>17029</v>
-      </c>
-      <c r="R140">
-        <v>17432</v>
-      </c>
-      <c r="S140">
-        <v>13696</v>
-      </c>
-      <c r="T140">
-        <v>1827</v>
-      </c>
-      <c r="U140">
-        <v>1827</v>
-      </c>
-      <c r="V140">
-        <v>778</v>
-      </c>
-      <c r="W140">
-        <v>2277</v>
-      </c>
-      <c r="X140">
-        <v>1711</v>
-      </c>
-      <c r="Y140">
-        <v>2187</v>
-      </c>
-      <c r="Z140">
-        <v>2187</v>
-      </c>
-      <c r="AA140">
-        <v>1945</v>
-      </c>
-      <c r="AB140">
-        <v>1545</v>
-      </c>
-      <c r="AC140">
-        <v>1759</v>
-      </c>
-      <c r="AD140">
-        <v>1527</v>
-      </c>
-      <c r="AE140">
-        <v>1527</v>
-      </c>
-      <c r="AF140">
-        <v>1780</v>
-      </c>
-      <c r="AG140">
-        <v>1858</v>
-      </c>
-      <c r="AH140">
-        <v>1193</v>
-      </c>
-      <c r="AI140">
-        <v>1074</v>
-      </c>
-      <c r="AJ140">
-        <v>1074</v>
-      </c>
-      <c r="AK140">
-        <v>683</v>
-      </c>
-      <c r="AL140">
+      <c r="AM140">
         <v>858</v>
-      </c>
-      <c r="AM140">
-        <v>536</v>
       </c>
     </row>
     <row r="141" spans="1:39">
       <c r="A141">
+        <v>2689</v>
+      </c>
+      <c r="B141">
+        <v>19838</v>
+      </c>
+      <c r="C141">
+        <v>3753</v>
+      </c>
+      <c r="D141">
+        <v>2554</v>
+      </c>
+      <c r="E141">
+        <v>1915</v>
+      </c>
+      <c r="F141">
+        <v>860</v>
+      </c>
+      <c r="G141">
+        <v>201804</v>
+      </c>
+      <c r="H141">
+        <v>2018</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+      <c r="J141">
+        <v>1726</v>
+      </c>
+      <c r="K141">
+        <v>1967</v>
+      </c>
+      <c r="L141">
+        <v>2713</v>
+      </c>
+      <c r="M141">
         <v>3328</v>
       </c>
-      <c r="B141">
+      <c r="N141">
+        <v>1948</v>
+      </c>
+      <c r="O141">
+        <v>18300</v>
+      </c>
+      <c r="P141">
+        <v>19445</v>
+      </c>
+      <c r="Q141">
+        <v>13720</v>
+      </c>
+      <c r="R141">
         <v>16549</v>
       </c>
-      <c r="C141">
+      <c r="S141">
+        <v>17430</v>
+      </c>
+      <c r="T141">
+        <v>3128</v>
+      </c>
+      <c r="U141">
+        <v>2210</v>
+      </c>
+      <c r="V141">
+        <v>2298</v>
+      </c>
+      <c r="W141">
         <v>1751</v>
       </c>
-      <c r="D141">
+      <c r="X141">
+        <v>2277</v>
+      </c>
+      <c r="Y141">
+        <v>2494</v>
+      </c>
+      <c r="Z141">
+        <v>5496</v>
+      </c>
+      <c r="AA141">
+        <v>1322</v>
+      </c>
+      <c r="AB141">
         <v>2698</v>
       </c>
-      <c r="E141">
+      <c r="AC141">
+        <v>1545</v>
+      </c>
+      <c r="AD141">
+        <v>1378</v>
+      </c>
+      <c r="AE141">
+        <v>785</v>
+      </c>
+      <c r="AF141">
+        <v>809</v>
+      </c>
+      <c r="AG141">
         <v>1129</v>
       </c>
-      <c r="F141">
+      <c r="AH141">
+        <v>1858</v>
+      </c>
+      <c r="AI141">
+        <v>904</v>
+      </c>
+      <c r="AJ141">
+        <v>850</v>
+      </c>
+      <c r="AK141">
+        <v>759</v>
+      </c>
+      <c r="AL141">
         <v>968</v>
       </c>
-      <c r="G141">
-        <v>201710</v>
-      </c>
-      <c r="H141">
-        <v>2017</v>
-      </c>
-      <c r="I141">
-        <v>10</v>
-      </c>
-      <c r="J141">
-        <v>2631</v>
-      </c>
-      <c r="K141">
-        <v>3826</v>
-      </c>
-      <c r="L141">
-        <v>3826</v>
-      </c>
-      <c r="M141">
-        <v>1948</v>
-      </c>
-      <c r="N141">
-        <v>1702</v>
-      </c>
-      <c r="O141">
-        <v>15152</v>
-      </c>
-      <c r="P141">
-        <v>21390</v>
-      </c>
-      <c r="Q141">
-        <v>21393</v>
-      </c>
-      <c r="R141">
-        <v>17430</v>
-      </c>
-      <c r="S141">
-        <v>18059</v>
-      </c>
-      <c r="T141">
-        <v>1944</v>
-      </c>
-      <c r="U141">
-        <v>1827</v>
-      </c>
-      <c r="V141">
-        <v>1827</v>
-      </c>
-      <c r="W141">
-        <v>2277</v>
-      </c>
-      <c r="X141">
-        <v>1932</v>
-      </c>
-      <c r="Y141">
-        <v>1764</v>
-      </c>
-      <c r="Z141">
-        <v>2187</v>
-      </c>
-      <c r="AA141">
-        <v>2187</v>
-      </c>
-      <c r="AB141">
-        <v>1545</v>
-      </c>
-      <c r="AC141">
-        <v>1918</v>
-      </c>
-      <c r="AD141">
-        <v>1048</v>
-      </c>
-      <c r="AE141">
-        <v>1527</v>
-      </c>
-      <c r="AF141">
-        <v>1527</v>
-      </c>
-      <c r="AG141">
-        <v>1858</v>
-      </c>
-      <c r="AH141">
-        <v>1404</v>
-      </c>
-      <c r="AI141">
-        <v>1006</v>
-      </c>
-      <c r="AJ141">
-        <v>1074</v>
-      </c>
-      <c r="AK141">
-        <v>1074</v>
-      </c>
-      <c r="AL141">
+      <c r="AM141">
         <v>858</v>
-      </c>
-      <c r="AM141">
-        <v>856</v>
       </c>
     </row>
     <row r="142" spans="1:39">
       <c r="A142">
+        <v>2899</v>
+      </c>
+      <c r="B142">
+        <v>19780</v>
+      </c>
+      <c r="C142">
+        <v>2547</v>
+      </c>
+      <c r="D142">
+        <v>1480</v>
+      </c>
+      <c r="E142">
+        <v>1957</v>
+      </c>
+      <c r="F142">
+        <v>837</v>
+      </c>
+      <c r="G142">
+        <v>201805</v>
+      </c>
+      <c r="H142">
+        <v>2018</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>2689</v>
+      </c>
+      <c r="K142">
+        <v>1726</v>
+      </c>
+      <c r="L142">
+        <v>1967</v>
+      </c>
+      <c r="M142">
         <v>2489</v>
       </c>
-      <c r="B142">
+      <c r="N142">
+        <v>2030</v>
+      </c>
+      <c r="O142">
+        <v>19838</v>
+      </c>
+      <c r="P142">
+        <v>18300</v>
+      </c>
+      <c r="Q142">
+        <v>19445</v>
+      </c>
+      <c r="R142">
         <v>18375</v>
       </c>
-      <c r="C142">
+      <c r="S142">
+        <v>16979</v>
+      </c>
+      <c r="T142">
+        <v>3753</v>
+      </c>
+      <c r="U142">
+        <v>3128</v>
+      </c>
+      <c r="V142">
+        <v>2210</v>
+      </c>
+      <c r="W142">
         <v>4169</v>
       </c>
-      <c r="D142">
+      <c r="X142">
+        <v>778</v>
+      </c>
+      <c r="Y142">
+        <v>2554</v>
+      </c>
+      <c r="Z142">
+        <v>2494</v>
+      </c>
+      <c r="AA142">
+        <v>5496</v>
+      </c>
+      <c r="AB142">
         <v>2352</v>
       </c>
-      <c r="E142">
+      <c r="AC142">
+        <v>1945</v>
+      </c>
+      <c r="AD142">
+        <v>1915</v>
+      </c>
+      <c r="AE142">
+        <v>1378</v>
+      </c>
+      <c r="AF142">
+        <v>785</v>
+      </c>
+      <c r="AG142">
         <v>1199</v>
       </c>
-      <c r="F142">
+      <c r="AH142">
+        <v>1761</v>
+      </c>
+      <c r="AI142">
+        <v>860</v>
+      </c>
+      <c r="AJ142">
+        <v>904</v>
+      </c>
+      <c r="AK142">
+        <v>850</v>
+      </c>
+      <c r="AL142">
         <v>1008</v>
       </c>
-      <c r="G142">
-        <v>201711</v>
-      </c>
-      <c r="H142">
-        <v>2017</v>
-      </c>
-      <c r="I142">
-        <v>11</v>
-      </c>
-      <c r="J142">
-        <v>3328</v>
-      </c>
-      <c r="K142">
-        <v>2631</v>
-      </c>
-      <c r="L142">
-        <v>3826</v>
-      </c>
-      <c r="M142">
-        <v>2030</v>
-      </c>
-      <c r="N142">
-        <v>2134</v>
-      </c>
-      <c r="O142">
-        <v>16549</v>
-      </c>
-      <c r="P142">
-        <v>15152</v>
-      </c>
-      <c r="Q142">
-        <v>21390</v>
-      </c>
-      <c r="R142">
-        <v>16979</v>
-      </c>
-      <c r="S142">
-        <v>17042</v>
-      </c>
-      <c r="T142">
-        <v>1751</v>
-      </c>
-      <c r="U142">
-        <v>1944</v>
-      </c>
-      <c r="V142">
-        <v>1827</v>
-      </c>
-      <c r="W142">
-        <v>778</v>
-      </c>
-      <c r="X142">
-        <v>1867</v>
-      </c>
-      <c r="Y142">
-        <v>2698</v>
-      </c>
-      <c r="Z142">
-        <v>1764</v>
-      </c>
-      <c r="AA142">
-        <v>2187</v>
-      </c>
-      <c r="AB142">
-        <v>1945</v>
-      </c>
-      <c r="AC142">
-        <v>1455</v>
-      </c>
-      <c r="AD142">
-        <v>1129</v>
-      </c>
-      <c r="AE142">
-        <v>1048</v>
-      </c>
-      <c r="AF142">
-        <v>1527</v>
-      </c>
-      <c r="AG142">
-        <v>1761</v>
-      </c>
-      <c r="AH142">
-        <v>1628</v>
-      </c>
-      <c r="AI142">
-        <v>968</v>
-      </c>
-      <c r="AJ142">
-        <v>1006</v>
-      </c>
-      <c r="AK142">
-        <v>1074</v>
-      </c>
-      <c r="AL142">
+      <c r="AM142">
         <v>683</v>
-      </c>
-      <c r="AM142">
-        <v>867</v>
       </c>
     </row>
     <row r="143" spans="1:39">
       <c r="A143">
+        <v>2391</v>
+      </c>
+      <c r="B143">
+        <v>18684</v>
+      </c>
+      <c r="C143">
+        <v>2939</v>
+      </c>
+      <c r="D143">
+        <v>1865</v>
+      </c>
+      <c r="E143">
+        <v>2367</v>
+      </c>
+      <c r="F143">
+        <v>1152</v>
+      </c>
+      <c r="G143">
+        <v>201806</v>
+      </c>
+      <c r="H143">
+        <v>2018</v>
+      </c>
+      <c r="I143">
+        <v>6</v>
+      </c>
+      <c r="J143">
+        <v>2899</v>
+      </c>
+      <c r="K143">
+        <v>2689</v>
+      </c>
+      <c r="L143">
+        <v>1726</v>
+      </c>
+      <c r="M143">
         <v>1831</v>
       </c>
-      <c r="B143">
+      <c r="N143">
+        <v>2030</v>
+      </c>
+      <c r="O143">
+        <v>19780</v>
+      </c>
+      <c r="P143">
+        <v>19838</v>
+      </c>
+      <c r="Q143">
+        <v>18300</v>
+      </c>
+      <c r="R143">
         <v>17030</v>
       </c>
-      <c r="C143">
+      <c r="S143">
+        <v>17029</v>
+      </c>
+      <c r="T143">
+        <v>2547</v>
+      </c>
+      <c r="U143">
+        <v>3753</v>
+      </c>
+      <c r="V143">
+        <v>3128</v>
+      </c>
+      <c r="W143">
         <v>4183</v>
       </c>
-      <c r="D143">
+      <c r="X143">
+        <v>778</v>
+      </c>
+      <c r="Y143">
+        <v>1480</v>
+      </c>
+      <c r="Z143">
+        <v>2554</v>
+      </c>
+      <c r="AA143">
+        <v>2494</v>
+      </c>
+      <c r="AB143">
         <v>1928</v>
       </c>
-      <c r="E143">
+      <c r="AC143">
+        <v>1945</v>
+      </c>
+      <c r="AD143">
+        <v>1957</v>
+      </c>
+      <c r="AE143">
+        <v>1915</v>
+      </c>
+      <c r="AF143">
+        <v>1378</v>
+      </c>
+      <c r="AG143">
         <v>1127</v>
       </c>
-      <c r="F143">
+      <c r="AH143">
+        <v>1780</v>
+      </c>
+      <c r="AI143">
+        <v>837</v>
+      </c>
+      <c r="AJ143">
+        <v>860</v>
+      </c>
+      <c r="AK143">
+        <v>904</v>
+      </c>
+      <c r="AL143">
         <v>1218</v>
       </c>
-      <c r="G143">
-        <v>201712</v>
-      </c>
-      <c r="H143">
-        <v>2017</v>
-      </c>
-      <c r="I143">
-        <v>12</v>
-      </c>
-      <c r="J143">
-        <v>2489</v>
-      </c>
-      <c r="K143">
-        <v>3328</v>
-      </c>
-      <c r="L143">
-        <v>2631</v>
-      </c>
-      <c r="M143">
-        <v>2030</v>
-      </c>
-      <c r="N143">
-        <v>2134</v>
-      </c>
-      <c r="O143">
-        <v>18375</v>
-      </c>
-      <c r="P143">
-        <v>16549</v>
-      </c>
-      <c r="Q143">
-        <v>15152</v>
-      </c>
-      <c r="R143">
-        <v>17029</v>
-      </c>
-      <c r="S143">
-        <v>17039</v>
-      </c>
-      <c r="T143">
-        <v>4169</v>
-      </c>
-      <c r="U143">
-        <v>1751</v>
-      </c>
-      <c r="V143">
-        <v>1944</v>
-      </c>
-      <c r="W143">
-        <v>778</v>
-      </c>
-      <c r="X143">
-        <v>1867</v>
-      </c>
-      <c r="Y143">
-        <v>2352</v>
-      </c>
-      <c r="Z143">
-        <v>2698</v>
-      </c>
-      <c r="AA143">
-        <v>1764</v>
-      </c>
-      <c r="AB143">
-        <v>1945</v>
-      </c>
-      <c r="AC143">
-        <v>1455</v>
-      </c>
-      <c r="AD143">
-        <v>1199</v>
-      </c>
-      <c r="AE143">
-        <v>1129</v>
-      </c>
-      <c r="AF143">
-        <v>1048</v>
-      </c>
-      <c r="AG143">
-        <v>1780</v>
-      </c>
-      <c r="AH143">
-        <v>1628</v>
-      </c>
-      <c r="AI143">
-        <v>1008</v>
-      </c>
-      <c r="AJ143">
-        <v>968</v>
-      </c>
-      <c r="AK143">
-        <v>1006</v>
-      </c>
-      <c r="AL143">
-        <v>683</v>
-      </c>
       <c r="AM143">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="144" spans="1:39">
-      <c r="A144">
-        <v>2713</v>
-      </c>
-      <c r="B144">
-        <v>13720</v>
-      </c>
-      <c r="C144">
-        <v>2298</v>
-      </c>
-      <c r="D144">
-        <v>1322</v>
-      </c>
-      <c r="E144">
-        <v>809</v>
-      </c>
-      <c r="F144">
-        <v>759</v>
-      </c>
-      <c r="G144">
-        <v>201801</v>
-      </c>
-      <c r="H144">
-        <v>2018</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <v>1831</v>
-      </c>
-      <c r="K144">
-        <v>2489</v>
-      </c>
-      <c r="L144">
-        <v>3328</v>
-      </c>
-      <c r="M144">
-        <v>3826</v>
-      </c>
-      <c r="N144">
-        <v>1942</v>
-      </c>
-      <c r="O144">
-        <v>17030</v>
-      </c>
-      <c r="P144">
-        <v>18375</v>
-      </c>
-      <c r="Q144">
-        <v>16549</v>
-      </c>
-      <c r="R144">
-        <v>21393</v>
-      </c>
-      <c r="S144">
-        <v>19666</v>
-      </c>
-      <c r="T144">
-        <v>4183</v>
-      </c>
-      <c r="U144">
-        <v>4169</v>
-      </c>
-      <c r="V144">
-        <v>1751</v>
-      </c>
-      <c r="W144">
-        <v>1827</v>
-      </c>
-      <c r="X144">
-        <v>2345</v>
-      </c>
-      <c r="Y144">
-        <v>1928</v>
-      </c>
-      <c r="Z144">
-        <v>2352</v>
-      </c>
-      <c r="AA144">
-        <v>2698</v>
-      </c>
-      <c r="AB144">
-        <v>2187</v>
-      </c>
-      <c r="AC144">
-        <v>2240</v>
-      </c>
-      <c r="AD144">
-        <v>1127</v>
-      </c>
-      <c r="AE144">
-        <v>1199</v>
-      </c>
-      <c r="AF144">
-        <v>1129</v>
-      </c>
-      <c r="AG144">
-        <v>1527</v>
-      </c>
-      <c r="AH144">
-        <v>1827</v>
-      </c>
-      <c r="AI144">
-        <v>1218</v>
-      </c>
-      <c r="AJ144">
-        <v>1008</v>
-      </c>
-      <c r="AK144">
-        <v>968</v>
-      </c>
-      <c r="AL144">
-        <v>1074</v>
-      </c>
-      <c r="AM144">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="145" spans="1:39">
-      <c r="A145">
-        <v>1967</v>
-      </c>
-      <c r="B145">
-        <v>19445</v>
-      </c>
-      <c r="C145">
-        <v>2210</v>
-      </c>
-      <c r="D145">
-        <v>5496</v>
-      </c>
-      <c r="E145">
-        <v>785</v>
-      </c>
-      <c r="F145">
-        <v>850</v>
-      </c>
-      <c r="G145">
-        <v>201802</v>
-      </c>
-      <c r="H145">
-        <v>2018</v>
-      </c>
-      <c r="I145">
-        <v>2</v>
-      </c>
-      <c r="J145">
-        <v>2713</v>
-      </c>
-      <c r="K145">
-        <v>1831</v>
-      </c>
-      <c r="L145">
-        <v>2489</v>
-      </c>
-      <c r="M145">
-        <v>3826</v>
-      </c>
-      <c r="N145">
-        <v>1942</v>
-      </c>
-      <c r="O145">
-        <v>13720</v>
-      </c>
-      <c r="P145">
-        <v>17030</v>
-      </c>
-      <c r="Q145">
-        <v>18375</v>
-      </c>
-      <c r="R145">
-        <v>21390</v>
-      </c>
-      <c r="S145">
-        <v>19688</v>
-      </c>
-      <c r="T145">
-        <v>2298</v>
-      </c>
-      <c r="U145">
-        <v>4183</v>
-      </c>
-      <c r="V145">
-        <v>4169</v>
-      </c>
-      <c r="W145">
-        <v>1827</v>
-      </c>
-      <c r="X145">
-        <v>2345</v>
-      </c>
-      <c r="Y145">
-        <v>1322</v>
-      </c>
-      <c r="Z145">
-        <v>1928</v>
-      </c>
-      <c r="AA145">
-        <v>2352</v>
-      </c>
-      <c r="AB145">
-        <v>2187</v>
-      </c>
-      <c r="AC145">
-        <v>2240</v>
-      </c>
-      <c r="AD145">
-        <v>809</v>
-      </c>
-      <c r="AE145">
-        <v>1127</v>
-      </c>
-      <c r="AF145">
-        <v>1199</v>
-      </c>
-      <c r="AG145">
-        <v>1527</v>
-      </c>
-      <c r="AH145">
-        <v>1827</v>
-      </c>
-      <c r="AI145">
-        <v>759</v>
-      </c>
-      <c r="AJ145">
-        <v>1218</v>
-      </c>
-      <c r="AK145">
-        <v>1008</v>
-      </c>
-      <c r="AL145">
-        <v>1074</v>
-      </c>
-      <c r="AM145">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:39">
-      <c r="A146">
-        <v>1726</v>
-      </c>
-      <c r="B146">
-        <v>18300</v>
-      </c>
-      <c r="C146">
-        <v>3128</v>
-      </c>
-      <c r="D146">
-        <v>2494</v>
-      </c>
-      <c r="E146">
-        <v>1378</v>
-      </c>
-      <c r="F146">
-        <v>904</v>
-      </c>
-      <c r="G146">
-        <v>201803</v>
-      </c>
-      <c r="H146">
-        <v>2018</v>
-      </c>
-      <c r="I146">
-        <v>3</v>
-      </c>
-      <c r="J146">
-        <v>1967</v>
-      </c>
-      <c r="K146">
-        <v>2713</v>
-      </c>
-      <c r="L146">
-        <v>1831</v>
-      </c>
-      <c r="M146">
-        <v>2631</v>
-      </c>
-      <c r="N146">
-        <v>1948</v>
-      </c>
-      <c r="O146">
-        <v>19445</v>
-      </c>
-      <c r="P146">
-        <v>13720</v>
-      </c>
-      <c r="Q146">
-        <v>17030</v>
-      </c>
-      <c r="R146">
-        <v>15152</v>
-      </c>
-      <c r="S146">
-        <v>17432</v>
-      </c>
-      <c r="T146">
-        <v>2210</v>
-      </c>
-      <c r="U146">
-        <v>2298</v>
-      </c>
-      <c r="V146">
-        <v>4183</v>
-      </c>
-      <c r="W146">
-        <v>1944</v>
-      </c>
-      <c r="X146">
-        <v>2277</v>
-      </c>
-      <c r="Y146">
-        <v>5496</v>
-      </c>
-      <c r="Z146">
-        <v>1322</v>
-      </c>
-      <c r="AA146">
-        <v>1928</v>
-      </c>
-      <c r="AB146">
-        <v>1764</v>
-      </c>
-      <c r="AC146">
-        <v>1545</v>
-      </c>
-      <c r="AD146">
-        <v>785</v>
-      </c>
-      <c r="AE146">
-        <v>809</v>
-      </c>
-      <c r="AF146">
-        <v>1127</v>
-      </c>
-      <c r="AG146">
-        <v>1048</v>
-      </c>
-      <c r="AH146">
-        <v>1858</v>
-      </c>
-      <c r="AI146">
-        <v>850</v>
-      </c>
-      <c r="AJ146">
-        <v>759</v>
-      </c>
-      <c r="AK146">
-        <v>1218</v>
-      </c>
-      <c r="AL146">
-        <v>1006</v>
-      </c>
-      <c r="AM146">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="147" spans="1:39">
-      <c r="A147">
-        <v>2689</v>
-      </c>
-      <c r="B147">
-        <v>19838</v>
-      </c>
-      <c r="C147">
-        <v>3753</v>
-      </c>
-      <c r="D147">
-        <v>2554</v>
-      </c>
-      <c r="E147">
-        <v>1915</v>
-      </c>
-      <c r="F147">
-        <v>860</v>
-      </c>
-      <c r="G147">
-        <v>201804</v>
-      </c>
-      <c r="H147">
-        <v>2018</v>
-      </c>
-      <c r="I147">
-        <v>4</v>
-      </c>
-      <c r="J147">
-        <v>1726</v>
-      </c>
-      <c r="K147">
-        <v>1967</v>
-      </c>
-      <c r="L147">
-        <v>2713</v>
-      </c>
-      <c r="M147">
-        <v>3328</v>
-      </c>
-      <c r="N147">
-        <v>1948</v>
-      </c>
-      <c r="O147">
-        <v>18300</v>
-      </c>
-      <c r="P147">
-        <v>19445</v>
-      </c>
-      <c r="Q147">
-        <v>13720</v>
-      </c>
-      <c r="R147">
-        <v>16549</v>
-      </c>
-      <c r="S147">
-        <v>17430</v>
-      </c>
-      <c r="T147">
-        <v>3128</v>
-      </c>
-      <c r="U147">
-        <v>2210</v>
-      </c>
-      <c r="V147">
-        <v>2298</v>
-      </c>
-      <c r="W147">
-        <v>1751</v>
-      </c>
-      <c r="X147">
-        <v>2277</v>
-      </c>
-      <c r="Y147">
-        <v>2494</v>
-      </c>
-      <c r="Z147">
-        <v>5496</v>
-      </c>
-      <c r="AA147">
-        <v>1322</v>
-      </c>
-      <c r="AB147">
-        <v>2698</v>
-      </c>
-      <c r="AC147">
-        <v>1545</v>
-      </c>
-      <c r="AD147">
-        <v>1378</v>
-      </c>
-      <c r="AE147">
-        <v>785</v>
-      </c>
-      <c r="AF147">
-        <v>809</v>
-      </c>
-      <c r="AG147">
-        <v>1129</v>
-      </c>
-      <c r="AH147">
-        <v>1858</v>
-      </c>
-      <c r="AI147">
-        <v>904</v>
-      </c>
-      <c r="AJ147">
-        <v>850</v>
-      </c>
-      <c r="AK147">
-        <v>759</v>
-      </c>
-      <c r="AL147">
-        <v>968</v>
-      </c>
-      <c r="AM147">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="148" spans="1:39">
-      <c r="A148">
-        <v>2899</v>
-      </c>
-      <c r="B148">
-        <v>19780</v>
-      </c>
-      <c r="C148">
-        <v>2547</v>
-      </c>
-      <c r="D148">
-        <v>1480</v>
-      </c>
-      <c r="E148">
-        <v>1957</v>
-      </c>
-      <c r="F148">
-        <v>837</v>
-      </c>
-      <c r="G148">
-        <v>201805</v>
-      </c>
-      <c r="H148">
-        <v>2018</v>
-      </c>
-      <c r="I148">
-        <v>5</v>
-      </c>
-      <c r="J148">
-        <v>2689</v>
-      </c>
-      <c r="K148">
-        <v>1726</v>
-      </c>
-      <c r="L148">
-        <v>1967</v>
-      </c>
-      <c r="M148">
-        <v>2489</v>
-      </c>
-      <c r="N148">
-        <v>2030</v>
-      </c>
-      <c r="O148">
-        <v>19838</v>
-      </c>
-      <c r="P148">
-        <v>18300</v>
-      </c>
-      <c r="Q148">
-        <v>19445</v>
-      </c>
-      <c r="R148">
-        <v>18375</v>
-      </c>
-      <c r="S148">
-        <v>16979</v>
-      </c>
-      <c r="T148">
-        <v>3753</v>
-      </c>
-      <c r="U148">
-        <v>3128</v>
-      </c>
-      <c r="V148">
-        <v>2210</v>
-      </c>
-      <c r="W148">
-        <v>4169</v>
-      </c>
-      <c r="X148">
-        <v>778</v>
-      </c>
-      <c r="Y148">
-        <v>2554</v>
-      </c>
-      <c r="Z148">
-        <v>2494</v>
-      </c>
-      <c r="AA148">
-        <v>5496</v>
-      </c>
-      <c r="AB148">
-        <v>2352</v>
-      </c>
-      <c r="AC148">
-        <v>1945</v>
-      </c>
-      <c r="AD148">
-        <v>1915</v>
-      </c>
-      <c r="AE148">
-        <v>1378</v>
-      </c>
-      <c r="AF148">
-        <v>785</v>
-      </c>
-      <c r="AG148">
-        <v>1199</v>
-      </c>
-      <c r="AH148">
-        <v>1761</v>
-      </c>
-      <c r="AI148">
-        <v>860</v>
-      </c>
-      <c r="AJ148">
-        <v>904</v>
-      </c>
-      <c r="AK148">
-        <v>850</v>
-      </c>
-      <c r="AL148">
-        <v>1008</v>
-      </c>
-      <c r="AM148">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="149" spans="1:39">
-      <c r="A149">
-        <v>2391</v>
-      </c>
-      <c r="B149">
-        <v>18684</v>
-      </c>
-      <c r="C149">
-        <v>2939</v>
-      </c>
-      <c r="D149">
-        <v>1865</v>
-      </c>
-      <c r="E149">
-        <v>2367</v>
-      </c>
-      <c r="F149">
-        <v>1152</v>
-      </c>
-      <c r="G149">
-        <v>201806</v>
-      </c>
-      <c r="H149">
-        <v>2018</v>
-      </c>
-      <c r="I149">
-        <v>6</v>
-      </c>
-      <c r="J149">
-        <v>2899</v>
-      </c>
-      <c r="K149">
-        <v>2689</v>
-      </c>
-      <c r="L149">
-        <v>1726</v>
-      </c>
-      <c r="M149">
-        <v>1831</v>
-      </c>
-      <c r="N149">
-        <v>2030</v>
-      </c>
-      <c r="O149">
-        <v>19780</v>
-      </c>
-      <c r="P149">
-        <v>19838</v>
-      </c>
-      <c r="Q149">
-        <v>18300</v>
-      </c>
-      <c r="R149">
-        <v>17030</v>
-      </c>
-      <c r="S149">
-        <v>17029</v>
-      </c>
-      <c r="T149">
-        <v>2547</v>
-      </c>
-      <c r="U149">
-        <v>3753</v>
-      </c>
-      <c r="V149">
-        <v>3128</v>
-      </c>
-      <c r="W149">
-        <v>4183</v>
-      </c>
-      <c r="X149">
-        <v>778</v>
-      </c>
-      <c r="Y149">
-        <v>1480</v>
-      </c>
-      <c r="Z149">
-        <v>2554</v>
-      </c>
-      <c r="AA149">
-        <v>2494</v>
-      </c>
-      <c r="AB149">
-        <v>1928</v>
-      </c>
-      <c r="AC149">
-        <v>1945</v>
-      </c>
-      <c r="AD149">
-        <v>1957</v>
-      </c>
-      <c r="AE149">
-        <v>1915</v>
-      </c>
-      <c r="AF149">
-        <v>1378</v>
-      </c>
-      <c r="AG149">
-        <v>1127</v>
-      </c>
-      <c r="AH149">
-        <v>1780</v>
-      </c>
-      <c r="AI149">
-        <v>837</v>
-      </c>
-      <c r="AJ149">
-        <v>860</v>
-      </c>
-      <c r="AK149">
-        <v>904</v>
-      </c>
-      <c r="AL149">
-        <v>1218</v>
-      </c>
-      <c r="AM149">
         <v>683</v>
       </c>
     </row>
